--- a/data/trans_orig/P57C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB7C59E-B56D-4DD1-A893-2A3A72904BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8370FA28-3799-4BEA-A281-EE3B2D3D43A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B33B98F9-97FC-4159-9D36-E6A11A3B29BF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{164832F4-6EA6-4F19-956E-06494431C8CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="284">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,826 +74,817 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>7,36%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>45,75%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
   </si>
   <si>
     <t>45,29%</t>
   </si>
   <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>35,25%</t>
   </si>
   <si>
-    <t>33,26%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>26,98%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1308,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758AAD6-EE08-4B4C-885A-85C3F4F1B889}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C868D8-FB86-475C-8BC5-1030F9129BEC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2422,13 +2413,13 @@
         <v>34007</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>69</v>
@@ -2437,10 +2428,10 @@
         <v>58647</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>170</v>
@@ -2542,10 +2533,10 @@
         <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2551,13 @@
         <v>254401</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>332</v>
@@ -2575,13 +2566,13 @@
         <v>247626</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>553</v>
@@ -2590,13 +2581,13 @@
         <v>502027</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,7 +2643,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2664,13 +2655,13 @@
         <v>19478</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -2679,13 +2670,13 @@
         <v>25272</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -2694,13 +2685,13 @@
         <v>44750</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2706,13 @@
         <v>53738</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>115</v>
@@ -2730,13 +2721,13 @@
         <v>77240</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>179</v>
@@ -2745,13 +2736,13 @@
         <v>130978</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2757,13 @@
         <v>152489</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>284</v>
@@ -2781,13 +2772,13 @@
         <v>197939</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>460</v>
@@ -2796,13 +2787,13 @@
         <v>350428</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2808,13 @@
         <v>446819</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>684</v>
@@ -2832,13 +2823,13 @@
         <v>482399</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>1163</v>
@@ -2847,13 +2838,13 @@
         <v>929218</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2859,13 @@
         <v>291178</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>436</v>
@@ -2883,13 +2874,13 @@
         <v>365412</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>700</v>
@@ -2898,13 +2889,13 @@
         <v>656589</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2963,13 @@
         <v>69952</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>153</v>
@@ -2987,13 +2978,13 @@
         <v>91749</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>234</v>
@@ -3002,13 +2993,13 @@
         <v>161701</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3014,13 @@
         <v>176321</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>406</v>
@@ -3038,13 +3029,13 @@
         <v>251053</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>615</v>
@@ -3053,13 +3044,13 @@
         <v>427374</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3065,13 @@
         <v>429190</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>895</v>
@@ -3089,13 +3080,13 @@
         <v>574998</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>1389</v>
@@ -3104,13 +3095,13 @@
         <v>1004188</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3116,13 @@
         <v>1512922</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>2432</v>
@@ -3140,28 +3131,28 @@
         <v>1736392</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>4014</v>
       </c>
       <c r="N37" s="7">
-        <v>3249314</v>
+        <v>3249313</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3167,13 @@
         <v>1191213</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
         <v>1458</v>
@@ -3191,13 +3182,13 @@
         <v>1140858</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="M38" s="7">
         <v>2461</v>
@@ -3206,13 +3197,13 @@
         <v>2332071</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,7 +3245,7 @@
         <v>8713</v>
       </c>
       <c r="N39" s="7">
-        <v>7174648</v>
+        <v>7174647</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -3268,7 +3259,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8370FA28-3799-4BEA-A281-EE3B2D3D43A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC306826-093D-48EE-B6AD-D66B3D47331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{164832F4-6EA6-4F19-956E-06494431C8CB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DDC66B4-302F-4258-B525-2335444E992C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muy en desacuerdo</t>
@@ -221,7 +221,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,5%</t>
@@ -359,7 +359,7 @@
     <t>35,58%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -497,7 +497,7 @@
     <t>40,36%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,53%</t>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C868D8-FB86-475C-8BC5-1030F9129BEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4AAB79-CE43-4A5F-9122-5D5D0FD81C61}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC306826-093D-48EE-B6AD-D66B3D47331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56751A0-BAE0-466A-82AD-91824593EA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DDC66B4-302F-4258-B525-2335444E992C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{971638B7-EF17-477F-B8DE-D121AC8AB3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="287">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,817 +74,826 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
   </si>
   <si>
     <t>45,75%</t>
   </si>
   <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
   </si>
   <si>
     <t>45,29%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
   </si>
   <si>
     <t>35,25%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>33,26%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>26,98%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1299,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4AAB79-CE43-4A5F-9122-5D5D0FD81C61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76BB121-76DE-441A-9B9F-4A76DA86E5B3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2413,13 +2422,13 @@
         <v>34007</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>69</v>
@@ -2428,10 +2437,10 @@
         <v>58647</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>170</v>
@@ -2533,10 +2542,10 @@
         <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2560,13 @@
         <v>254401</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>332</v>
@@ -2566,13 +2575,13 @@
         <v>247626</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>553</v>
@@ -2581,13 +2590,13 @@
         <v>502027</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,7 +2652,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2655,13 +2664,13 @@
         <v>19478</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -2670,13 +2679,13 @@
         <v>25272</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -2685,13 +2694,13 @@
         <v>44750</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2715,13 @@
         <v>53738</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>115</v>
@@ -2721,13 +2730,13 @@
         <v>77240</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>179</v>
@@ -2736,13 +2745,13 @@
         <v>130978</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2766,13 @@
         <v>152489</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>284</v>
@@ -2772,13 +2781,13 @@
         <v>197939</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>460</v>
@@ -2787,13 +2796,13 @@
         <v>350428</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2817,13 @@
         <v>446819</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>684</v>
@@ -2823,13 +2832,13 @@
         <v>482399</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>1163</v>
@@ -2838,13 +2847,13 @@
         <v>929218</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2868,13 @@
         <v>291178</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>436</v>
@@ -2874,13 +2883,13 @@
         <v>365412</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>700</v>
@@ -2889,13 +2898,13 @@
         <v>656589</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2972,13 @@
         <v>69952</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>153</v>
@@ -2978,13 +2987,13 @@
         <v>91749</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>234</v>
@@ -2993,13 +3002,13 @@
         <v>161701</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3023,13 @@
         <v>176321</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>406</v>
@@ -3029,13 +3038,13 @@
         <v>251053</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M35" s="7">
         <v>615</v>
@@ -3044,13 +3053,13 @@
         <v>427374</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3074,13 @@
         <v>429190</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H36" s="7">
         <v>895</v>
@@ -3080,13 +3089,13 @@
         <v>574998</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M36" s="7">
         <v>1389</v>
@@ -3095,13 +3104,13 @@
         <v>1004188</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3125,13 @@
         <v>1512922</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
         <v>2432</v>
@@ -3131,28 +3140,28 @@
         <v>1736392</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M37" s="7">
         <v>4014</v>
       </c>
       <c r="N37" s="7">
-        <v>3249313</v>
+        <v>3249314</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3176,13 @@
         <v>1191213</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="H38" s="7">
         <v>1458</v>
@@ -3182,13 +3191,13 @@
         <v>1140858</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="M38" s="7">
         <v>2461</v>
@@ -3197,13 +3206,13 @@
         <v>2332071</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,7 +3254,7 @@
         <v>8713</v>
       </c>
       <c r="N39" s="7">
-        <v>7174647</v>
+        <v>7174648</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -3259,7 +3268,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
